--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithoutSourceData-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithoutSourceData-output.xlsx
@@ -148,51 +148,45 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" indent="0" multipleFieldFilters="0">
-  <x:location ref="A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="2">
-    <x:pivotField name="Name" axis="axisRow" showAll="0">
-      <x:items count="3">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Sold" dataField="1">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="3">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colItems count="1">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Sum of Sold" fld="1" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sold" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
